--- a/data/2023/ssg/7,50_DE-7.xlsx
+++ b/data/2023/ssg/7,50_DE-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="457">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -91,60 +91,576 @@
     <t>FL-Bibliotheken</t>
   </si>
   <si>
+    <t>6730-1</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>ra;mg;b</t>
+  </si>
+  <si>
+    <t>Finnisch-ugrische Mitteilungen</t>
+  </si>
+  <si>
+    <t>Buske</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0341-7816</t>
+  </si>
+  <si>
+    <t>490;890</t>
+  </si>
+  <si>
+    <t>7,5;7,50</t>
+  </si>
+  <si>
+    <t>1.1977 -</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1a;16;18;19</t>
+  </si>
+  <si>
+    <t>1085720-5</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Folia Uralica Debreceniensia</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Debrecen</t>
+  </si>
+  <si>
+    <t>0239-1953</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>7,50</t>
+  </si>
+  <si>
+    <t>1.1989 -</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1a;12</t>
+  </si>
+  <si>
+    <t>402174-5</t>
+  </si>
+  <si>
+    <t>Keleti szemle</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>7,50;6,23</t>
+  </si>
+  <si>
+    <t>1.1900 - 21.1932; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1095206-8</t>
+  </si>
+  <si>
+    <t>Carelia</t>
+  </si>
+  <si>
+    <t>Periodika-Kustantamo</t>
+  </si>
+  <si>
+    <t>Petroskoi</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>0868-6513</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>7,50;7,41</t>
+  </si>
+  <si>
+    <t>1095219-6</t>
+  </si>
+  <si>
+    <t>1990,7 -</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>779550-6</t>
+  </si>
+  <si>
+    <t>Fenno-Ugrica Suecana</t>
+  </si>
+  <si>
+    <t>Inst.</t>
+  </si>
+  <si>
+    <t>Uppsala</t>
+  </si>
+  <si>
+    <t>0348-3045</t>
+  </si>
+  <si>
+    <t>1.1978 - 12.1994[?]</t>
+  </si>
+  <si>
+    <t>791711-9</t>
+  </si>
+  <si>
+    <t>Finno-ugristika</t>
+  </si>
+  <si>
+    <t>Tip. Krasnyj Oktjabr'</t>
+  </si>
+  <si>
+    <t>Saransk</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>1.1978 - 3.1980; 4.2000 - 9.2010; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1121418-1</t>
+  </si>
+  <si>
+    <t>Pačemyš</t>
+  </si>
+  <si>
+    <t>Periodika Marij Ėl</t>
+  </si>
+  <si>
+    <t>Joškar-Ola</t>
+  </si>
+  <si>
+    <t>0130-9269</t>
+  </si>
+  <si>
+    <t>Nachgewiesen Nr. 401.1990 -</t>
+  </si>
+  <si>
+    <t>1125013-6</t>
+  </si>
+  <si>
+    <t>Mokša</t>
+  </si>
+  <si>
+    <t>0134-434X</t>
+  </si>
+  <si>
+    <t>050;800;890</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1992 -</t>
+  </si>
+  <si>
+    <t>83985-1</t>
+  </si>
+  <si>
+    <t>Literatura o Permskoj Oblasti</t>
+  </si>
+  <si>
+    <t>Permskoe Kniž. Izdat.</t>
+  </si>
+  <si>
+    <t>Perm'</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1961(1962) -</t>
+  </si>
+  <si>
+    <t>1139569-2</t>
+  </si>
+  <si>
+    <t>Ončyko</t>
+  </si>
+  <si>
+    <t>chm</t>
+  </si>
+  <si>
+    <t>0134-4358</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1957 -  ; auch mit durchgehender Nr.-Zählung</t>
+  </si>
+  <si>
+    <t>1139588-6</t>
+  </si>
+  <si>
+    <t>Keneš</t>
+  </si>
+  <si>
+    <t>Ižkar</t>
+  </si>
+  <si>
+    <t>0206-4227;0869-883X</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1991 -</t>
+  </si>
+  <si>
+    <t>1152517-4</t>
+  </si>
+  <si>
+    <t>mg;d</t>
+  </si>
+  <si>
+    <t>Lexica Societatis Fenno-Ugricae</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>0780-8070;0356-5769</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>1.1913 -</t>
+  </si>
+  <si>
+    <t>1170401-9</t>
+  </si>
+  <si>
+    <t>Trudy po lingvistike</t>
+  </si>
+  <si>
+    <t>Moskva [u.a.]</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>1.1937 - 5.1937[?]</t>
+  </si>
+  <si>
+    <t>1170696-X</t>
+  </si>
+  <si>
+    <t>Bibliotheca Hungarico-Estica Instituti Litterarum Hungarici Universitatis Tartuensis</t>
+  </si>
+  <si>
+    <t>Tartu</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>15.1934/35 nachgewiesen</t>
+  </si>
+  <si>
+    <t>216537-5</t>
+  </si>
+  <si>
+    <t>Etudes finno-ougriennes</t>
+  </si>
+  <si>
+    <t>L'Harmattan [u.a.]</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>fre</t>
+  </si>
+  <si>
+    <t>0209-7699;0071-2051</t>
+  </si>
+  <si>
+    <t>1.1964 - 22.1989/90(1990); 23.1991 -</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1a;12;19</t>
+  </si>
+  <si>
+    <t>217995-7</t>
+  </si>
+  <si>
+    <t>mg;b</t>
+  </si>
+  <si>
+    <t>Ural-altaische Jahrbücher</t>
+  </si>
+  <si>
+    <t>Eurolingua</t>
+  </si>
+  <si>
+    <t>Berlin [u.a.]</t>
+  </si>
+  <si>
+    <t>0042-0786</t>
+  </si>
+  <si>
+    <t>890;390</t>
+  </si>
+  <si>
+    <t>7,50;6,21;6,23</t>
+  </si>
+  <si>
+    <t>1160713-0;307804-8</t>
+  </si>
+  <si>
+    <t>217996-9</t>
+  </si>
+  <si>
+    <t>24.1952 - 64.1992</t>
+  </si>
+  <si>
+    <t>1006187-3</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Vogul népköltési gyüjtemény</t>
+  </si>
+  <si>
+    <t>1410938-4</t>
+  </si>
+  <si>
+    <t>1.1892 - 3.1893,1; 4.1897,1</t>
+  </si>
+  <si>
+    <t>1217646-1</t>
+  </si>
+  <si>
+    <t>Literatura o Respublike Komi</t>
+  </si>
+  <si>
+    <t>Komi Knižnoe Izd.</t>
+  </si>
+  <si>
+    <t>Syktyvkar</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>420404-9</t>
+  </si>
+  <si>
+    <t>1990(1993) -</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1023548-6</t>
+  </si>
+  <si>
+    <t>Selkupskij (ostjako samoedskij) jazyk</t>
+  </si>
+  <si>
+    <t>Leningrad</t>
+  </si>
+  <si>
+    <t>rus;eng</t>
+  </si>
+  <si>
+    <t>1.1935[?]</t>
+  </si>
+  <si>
+    <t>1023854-2</t>
+  </si>
+  <si>
+    <t>Jazyki i pis'mennost narodov severa</t>
+  </si>
+  <si>
+    <t>1.1937[?]</t>
+  </si>
+  <si>
+    <t>1024225-9</t>
+  </si>
+  <si>
+    <t>Linguistica Uralica</t>
+  </si>
+  <si>
+    <t>Tallin</t>
+  </si>
+  <si>
+    <t>ger;rus;eng</t>
+  </si>
+  <si>
+    <t>0868-4731;0132-0777</t>
+  </si>
+  <si>
+    <t>401622-1</t>
+  </si>
+  <si>
+    <t>26.1990 -</t>
+  </si>
+  <si>
+    <t>1238935-3</t>
+  </si>
+  <si>
+    <t>ra;b</t>
+  </si>
+  <si>
+    <t>Philologia Fenno-Ugrica</t>
+  </si>
+  <si>
+    <t>Verl. Wiss. &amp; Öffentlichkeit;Hochschul-Verl.</t>
+  </si>
+  <si>
+    <t>Freiburg, Br.</t>
+  </si>
+  <si>
+    <t>0943-9471</t>
+  </si>
+  <si>
+    <t>400;890</t>
+  </si>
+  <si>
+    <t>2953879-8</t>
+  </si>
+  <si>
+    <t>1.1994/95(1994)-16/17 (2010/2011)</t>
+  </si>
+  <si>
+    <t>1043467-7</t>
+  </si>
+  <si>
+    <t>Kraj mordovskij</t>
+  </si>
+  <si>
+    <t>1975 - 1977 nachgewiesen</t>
+  </si>
+  <si>
+    <t>300253-6</t>
+  </si>
+  <si>
+    <t>rb;mg;b</t>
+  </si>
+  <si>
+    <t>Finnisch-ugrische Forschungen</t>
+  </si>
+  <si>
+    <t>Finnisch-Ugrische Ges.</t>
+  </si>
+  <si>
+    <t>0355-1253</t>
+  </si>
+  <si>
+    <t>1.1901 -</t>
+  </si>
+  <si>
+    <t>1a;12;16;46</t>
+  </si>
+  <si>
+    <t>307804-8</t>
+  </si>
+  <si>
+    <t>Harrassowitz</t>
+  </si>
+  <si>
+    <t>Wiesbaden</t>
+  </si>
+  <si>
+    <t>0174-0652</t>
+  </si>
+  <si>
+    <t>7,50;6,23;FID-FINNUG-DE-7</t>
+  </si>
+  <si>
+    <t>N.F. 1.1981 -</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1a;12;26;43;46;77/080</t>
+  </si>
+  <si>
+    <t>2019750-0</t>
+  </si>
+  <si>
+    <t>Mäetagused</t>
+  </si>
+  <si>
+    <t>Instituut</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>1406-992X</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>1/2.1996 -</t>
+  </si>
+  <si>
+    <t>2031832-7</t>
+  </si>
+  <si>
+    <t>Cafe boddu</t>
+  </si>
+  <si>
+    <t>Davvi Girjji</t>
+  </si>
+  <si>
+    <t>Kárasjohka</t>
+  </si>
+  <si>
+    <t>1.1991 -</t>
+  </si>
+  <si>
     <t>2402241-X</t>
   </si>
   <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Vybory v Respublike Komi</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Syktyvkar</t>
-  </si>
-  <si>
-    <t>rus</t>
-  </si>
-  <si>
     <t>320</t>
   </si>
   <si>
-    <t>7,50</t>
-  </si>
-  <si>
     <t>Nachgewiesen 1989/2000(2002) -</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>402174-5</t>
-  </si>
-  <si>
-    <t>Keleti szemle</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>ger</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>7,50;6,23</t>
-  </si>
-  <si>
-    <t>1.1900 - 21.1932; damit Ersch. eingest.</t>
-  </si>
-  <si>
     <t>2407668-5</t>
   </si>
   <si>
@@ -157,21 +673,12 @@
     <t>0868-796x;2305-2333</t>
   </si>
   <si>
-    <t>390</t>
-  </si>
-  <si>
     <t>7,50;FID-FINNUG-DE-7</t>
   </si>
   <si>
     <t>Nachgewiesen 2005 -</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
     <t>1335115-1</t>
   </si>
   <si>
@@ -217,9 +724,6 @@
     <t>Journal of ethnology and folkloristics</t>
   </si>
   <si>
-    <t>Tartu</t>
-  </si>
-  <si>
     <t>eng</t>
   </si>
   <si>
@@ -235,9 +739,6 @@
     <t>1.2007 -</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>1a;4;19;30;Mb 50;L 228</t>
   </si>
   <si>
@@ -253,12 +754,6 @@
     <t>Seura</t>
   </si>
   <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
     <t>1798-2987</t>
   </si>
   <si>
@@ -274,1099 +769,607 @@
     <t>LF</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>12;19;20;26;1102;29;946;90;861;Mh 39;898;155;355;384;Aug 4;37;473;521;703;739;573;824;150;634;706;523;Re 13</t>
+  </si>
+  <si>
+    <t>1359659-7</t>
+  </si>
+  <si>
+    <t>Kižskij vestnik</t>
+  </si>
+  <si>
+    <t>Petrozavodsk</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>7,50;7,39</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2.1993(1994) -</t>
+  </si>
+  <si>
+    <t>2444782-1</t>
+  </si>
+  <si>
+    <t>zt;b</t>
+  </si>
+  <si>
+    <t>Karjalan sanomat</t>
+  </si>
+  <si>
+    <t>Karjalan tasavalta</t>
+  </si>
+  <si>
+    <t>050;100</t>
+  </si>
+  <si>
+    <t>7,50;56</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 88.2008 - ; auch mit durchgehender Nr.-Zählung</t>
+  </si>
+  <si>
+    <t>2446760-1</t>
+  </si>
+  <si>
+    <t>Uralica Helsingiensia</t>
+  </si>
+  <si>
+    <t>Tiedekirja</t>
+  </si>
+  <si>
+    <t>1797-3945</t>
+  </si>
+  <si>
+    <t>1.2008 -</t>
+  </si>
+  <si>
+    <t>2463054-8</t>
+  </si>
+  <si>
+    <t>Sápmi</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>Umeå</t>
+  </si>
+  <si>
+    <t>0281-4226</t>
+  </si>
+  <si>
+    <t>1.1983 -</t>
+  </si>
+  <si>
+    <t>2467966-5</t>
+  </si>
+  <si>
+    <t>Medievalia Hungarica series</t>
+  </si>
+  <si>
+    <t>Research Inst. for Inner Asian Studies</t>
+  </si>
+  <si>
+    <t>Bloomington, Ind.</t>
+  </si>
+  <si>
+    <t>1.1988 -</t>
+  </si>
+  <si>
+    <t>1414049-4</t>
+  </si>
+  <si>
+    <t>Literaturnyj žurnal Luč</t>
+  </si>
+  <si>
+    <t>0869-6381</t>
+  </si>
+  <si>
+    <t>800;070;890</t>
+  </si>
+  <si>
+    <t>7,39;7,50</t>
+  </si>
+  <si>
+    <t>1319520-7</t>
+  </si>
+  <si>
+    <t>1997 -</t>
+  </si>
+  <si>
+    <t>2504729-2</t>
+  </si>
+  <si>
+    <t>Idnakar</t>
+  </si>
+  <si>
+    <t>Korobejnikov</t>
+  </si>
+  <si>
+    <t>1994-5698</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>2007 -</t>
+  </si>
+  <si>
+    <t>2208585-3</t>
+  </si>
+  <si>
+    <t>Sámi dieðalaš áigečála</t>
+  </si>
+  <si>
+    <t>Sámi Allaskuvla</t>
+  </si>
+  <si>
+    <t>Tromsø</t>
+  </si>
+  <si>
+    <t>nor;smi</t>
+  </si>
+  <si>
+    <t>0805-4312</t>
+  </si>
+  <si>
+    <t>890;390;300</t>
+  </si>
+  <si>
+    <t>1994 -</t>
+  </si>
+  <si>
+    <t>2511686-1</t>
+  </si>
+  <si>
+    <t>Juminkeko-säätiön kansanmusiikin julkaisuja</t>
+  </si>
+  <si>
+    <t>Sibelius-Akatemia [u.a.]</t>
+  </si>
+  <si>
+    <t>Helsinki [u.a.]</t>
+  </si>
+  <si>
+    <t>1797-9838</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>1.2001 -</t>
+  </si>
+  <si>
+    <t>2512121-2</t>
+  </si>
+  <si>
+    <t>Čuovgga suotnjarat</t>
+  </si>
+  <si>
+    <t>Davvi Girji</t>
+  </si>
+  <si>
+    <t>[Kárájohka]</t>
+  </si>
+  <si>
+    <t>sme</t>
+  </si>
+  <si>
+    <t>1.2009 -</t>
+  </si>
+  <si>
+    <t>2513403-6</t>
+  </si>
+  <si>
+    <t>Finnougorija</t>
+  </si>
+  <si>
+    <t>OOO Kontekst</t>
+  </si>
+  <si>
+    <t>Nr. 1.2008 - 8.2009 ; nachgewiesen 13.2017-</t>
+  </si>
+  <si>
+    <t>1443872-0</t>
+  </si>
+  <si>
+    <t>Finno-Ugrica</t>
+  </si>
+  <si>
+    <t>Kazan'</t>
+  </si>
+  <si>
+    <t>Nr. 1.1997 - 12/13.2011; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>2145850-9</t>
+  </si>
+  <si>
+    <t>Finnugor világ</t>
+  </si>
+  <si>
+    <t>Waldberg</t>
+  </si>
+  <si>
+    <t>Érd</t>
+  </si>
+  <si>
+    <t>hun</t>
+  </si>
+  <si>
+    <t>1416-776X</t>
+  </si>
+  <si>
+    <t>1.1996 -</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2529470-2</t>
+  </si>
+  <si>
+    <t>Ežegodnik finno-ugorskich issledovanij</t>
+  </si>
+  <si>
+    <t>ERGO</t>
+  </si>
+  <si>
+    <t>2224-9443</t>
+  </si>
+  <si>
+    <t>Nachgewiesn 2007(2008) -</t>
+  </si>
+  <si>
+    <t>2533724-5</t>
+  </si>
+  <si>
+    <t>Materialy i issledovanija</t>
+  </si>
+  <si>
+    <t>050;390</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2.2008 -</t>
+  </si>
+  <si>
+    <t>2536024-3</t>
+  </si>
+  <si>
+    <t>Bičet</t>
+  </si>
+  <si>
+    <t>rus;udm</t>
+  </si>
+  <si>
+    <t>2546877-7</t>
+  </si>
+  <si>
+    <t>Finno-ugorskij mir</t>
+  </si>
+  <si>
+    <t>Mežregionalʹnyj Naučnyj Centr Finno-Ugorvedenija</t>
+  </si>
+  <si>
+    <t>2076-2577</t>
+  </si>
+  <si>
+    <t>Nr. 1.2008 -</t>
+  </si>
+  <si>
+    <t>2243912-2</t>
+  </si>
+  <si>
+    <t>Habilitationes Savarienses</t>
+  </si>
+  <si>
+    <t>Savaria University Press</t>
+  </si>
+  <si>
+    <t>Szombathely</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2.1997 -</t>
+  </si>
+  <si>
+    <t>2557432-2</t>
+  </si>
+  <si>
+    <t>Udmurtskij mir</t>
+  </si>
+  <si>
+    <t>udm</t>
+  </si>
+  <si>
+    <t>Udmurt dunne</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2009,16.Jan=Nr. 24348/49 -</t>
+  </si>
+  <si>
+    <t>2248568-5</t>
+  </si>
+  <si>
+    <t>Kodima</t>
+  </si>
+  <si>
+    <t>Izdat. Peridika</t>
+  </si>
+  <si>
+    <t>fiu</t>
+  </si>
+  <si>
+    <t>Nachgewiesen Nr. 142.2005 -</t>
+  </si>
+  <si>
+    <t>2567302-6</t>
+  </si>
+  <si>
+    <t>Uralo-altajskie issledovanija</t>
+  </si>
+  <si>
+    <t>Institut Jazykoznanija RAN</t>
+  </si>
+  <si>
+    <t>Moskva</t>
+  </si>
+  <si>
+    <t>2079-1003</t>
+  </si>
+  <si>
+    <t>7,11;7,50;FID-LING-DE-30</t>
+  </si>
+  <si>
+    <t>2259914-9</t>
+  </si>
+  <si>
+    <t>Marijskaja filologija</t>
+  </si>
+  <si>
+    <t>MarGU</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 5.2005 - 7.2006; 8.2012 -</t>
+  </si>
+  <si>
+    <t>2262617-7</t>
+  </si>
+  <si>
+    <t>Trudy Instituta Jazyka, Istorii i Tradicionnoj Kultury Komi-Permjackogo Naroda</t>
+  </si>
+  <si>
+    <t>Univ.</t>
+  </si>
+  <si>
+    <t>Permʹ</t>
+  </si>
+  <si>
+    <t>1.2005 -</t>
+  </si>
+  <si>
+    <t>2579309-3</t>
+  </si>
+  <si>
+    <t>Karjalan Kuvalehti</t>
+  </si>
+  <si>
+    <t>Lappeenranta</t>
+  </si>
+  <si>
+    <t>1798-9779</t>
+  </si>
+  <si>
+    <t>050;910</t>
+  </si>
+  <si>
+    <t>2010 -</t>
+  </si>
+  <si>
+    <t>2272230-0</t>
+  </si>
+  <si>
+    <t>Minoritates mundi</t>
+  </si>
+  <si>
+    <t>Mentor Kiadó</t>
+  </si>
+  <si>
+    <t>Marosvásarhely</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 5.2001 -</t>
+  </si>
+  <si>
+    <t>2588949-7</t>
+  </si>
+  <si>
+    <t>Marij sandalyk</t>
+  </si>
+  <si>
+    <t>chm;rus</t>
+  </si>
+  <si>
+    <t>2008 -</t>
+  </si>
+  <si>
+    <t>2590514-4</t>
+  </si>
+  <si>
+    <t>U kamelʹka</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>8.2009 nachgewiesen</t>
+  </si>
+  <si>
+    <t>2597377-0</t>
+  </si>
+  <si>
+    <t>Karjalan Kielen Seuran julkaisuja</t>
+  </si>
+  <si>
+    <t>2007348-3</t>
+  </si>
+  <si>
+    <t>Osa</t>
+  </si>
+  <si>
+    <t>Pacemyš-Osa</t>
+  </si>
+  <si>
+    <t>0131-2510</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1999,1=484 -</t>
+  </si>
+  <si>
+    <t>2376443-0</t>
+  </si>
+  <si>
+    <t>Kulttuurituotannon ja maisemantutkimuksen laitoksen julkaisuja</t>
+  </si>
+  <si>
+    <t>Turun Yliopisto, Kulttuurituotannon ja Maisemantutkimuksen Laitos</t>
+  </si>
+  <si>
+    <t>Pori</t>
+  </si>
+  <si>
+    <t>1459-8469</t>
+  </si>
+  <si>
+    <t>1.2004 -</t>
+  </si>
+  <si>
+    <t>2377997-4</t>
+  </si>
+  <si>
+    <t>Lapin Yliopiston kasvatustieteellisiä julkaisuja</t>
+  </si>
+  <si>
+    <t>Lapplands Universitet, Biblioteket</t>
+  </si>
+  <si>
+    <t>Rovaniemi</t>
+  </si>
+  <si>
+    <t>1457-9553</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 15.2006 -</t>
+  </si>
+  <si>
+    <t>2381829-3</t>
+  </si>
+  <si>
+    <t>Nordlit</t>
+  </si>
+  <si>
+    <t>nor;eng</t>
+  </si>
+  <si>
+    <t>1503-2086</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>7,50;FID-GER-DE-30</t>
+  </si>
+  <si>
+    <t>1457916-9</t>
+  </si>
+  <si>
+    <t>Nr. 1.1997 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2381829;https://septentrio.uit.no/index.php/nordlit</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>12;19;20;26;29;1102;946;90;Mh 39;355;898;155;384;Aug 4;37;473;703;739;824;573;150;706;Re 13</t>
+  </si>
+  <si>
+    <t>2642729-1</t>
+  </si>
+  <si>
+    <t>Schmidt Éva könyvtár</t>
+  </si>
+  <si>
+    <t>MTA Nyelvtudományi Int.</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2.2006 -</t>
+  </si>
+  <si>
+    <t>2670149-2</t>
+  </si>
+  <si>
+    <t>SÁMIacademica</t>
+  </si>
+  <si>
+    <t>ČálliidLágádus</t>
+  </si>
+  <si>
+    <t>Karasjok</t>
+  </si>
+  <si>
+    <t>1891-4519</t>
+  </si>
+  <si>
+    <t>[1].2008 -</t>
+  </si>
+  <si>
+    <t>2765367-5</t>
+  </si>
+  <si>
+    <t>Podvižniki kulʹtury Respubliki Marij Ėl</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 24.2013-</t>
+  </si>
+  <si>
+    <t>2769844-0</t>
+  </si>
+  <si>
+    <t>ld;dm;b</t>
+  </si>
+  <si>
+    <t>Harrassowitz [in Komm.]</t>
+  </si>
+  <si>
+    <t>2851867-6</t>
+  </si>
+  <si>
+    <t>N.F. 1.1981-25 (2012/2013)</t>
+  </si>
+  <si>
+    <t>http://resolver.sub.uni-goettingen.de/purl?PPN785327681;http://www.bibliothek.uni-regensburg.de/ezeit/?2769844</t>
+  </si>
+  <si>
+    <t>2826545-2</t>
+  </si>
+  <si>
+    <t>1 (1989)-</t>
+  </si>
+  <si>
+    <t>http://mnytud.arts.unideb.hu/finnugor/fud.php;http://www.bibliothek.uni-regensburg.de/ezeit/?2826545</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
-    <t>12;19;20;26;1102;29;946;90;861;Mh 39;898;155;355;384;Aug 4;37;473;521;703;739;573;824;150;634;706;523</t>
-  </si>
-  <si>
-    <t>1359659-7</t>
-  </si>
-  <si>
-    <t>Kižskij vestnik</t>
-  </si>
-  <si>
-    <t>Petrozavodsk</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>7,50;7,39</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2.1993(1994) -</t>
-  </si>
-  <si>
-    <t>2444782-1</t>
-  </si>
-  <si>
-    <t>zt;b</t>
-  </si>
-  <si>
-    <t>Karjalan sanomat</t>
-  </si>
-  <si>
-    <t>Karjalan tasavalta</t>
-  </si>
-  <si>
-    <t>Petroskoi</t>
-  </si>
-  <si>
-    <t>050;100</t>
-  </si>
-  <si>
-    <t>7,50;56</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 88.2008 - ; auch mit durchgehender Nr.-Zählung</t>
-  </si>
-  <si>
-    <t>2446760-1</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Uralica Helsingiensia</t>
-  </si>
-  <si>
-    <t>Tiedekirja</t>
-  </si>
-  <si>
-    <t>1797-3945</t>
-  </si>
-  <si>
-    <t>1.2008 -</t>
-  </si>
-  <si>
-    <t>2463054-8</t>
-  </si>
-  <si>
-    <t>Sápmi</t>
-  </si>
-  <si>
-    <t>SSR</t>
-  </si>
-  <si>
-    <t>Umeå</t>
-  </si>
-  <si>
-    <t>0281-4226</t>
-  </si>
-  <si>
-    <t>1.1983 -</t>
-  </si>
-  <si>
-    <t>2467966-5</t>
-  </si>
-  <si>
-    <t>Medievalia Hungarica series</t>
-  </si>
-  <si>
-    <t>Research Inst. for Inner Asian Studies</t>
-  </si>
-  <si>
-    <t>Bloomington, Ind.</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>1.1988 -</t>
-  </si>
-  <si>
-    <t>1414049-4</t>
-  </si>
-  <si>
-    <t>Literaturnyj žurnal Luč</t>
-  </si>
-  <si>
-    <t>0869-6381</t>
-  </si>
-  <si>
-    <t>800;070;890</t>
-  </si>
-  <si>
-    <t>7,39;7,50</t>
-  </si>
-  <si>
-    <t>1319520-7</t>
-  </si>
-  <si>
-    <t>1997 -</t>
-  </si>
-  <si>
-    <t>2504729-2</t>
-  </si>
-  <si>
-    <t>Idnakar</t>
-  </si>
-  <si>
-    <t>Korobejnikov</t>
-  </si>
-  <si>
-    <t>1994-5698</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>2007 -</t>
-  </si>
-  <si>
-    <t>2208585-3</t>
-  </si>
-  <si>
-    <t>Sámi dieðalaš áigečála</t>
-  </si>
-  <si>
-    <t>Sámi Allaskuvla</t>
-  </si>
-  <si>
-    <t>Tromsø</t>
-  </si>
-  <si>
-    <t>nor;smi</t>
-  </si>
-  <si>
-    <t>0805-4312</t>
-  </si>
-  <si>
-    <t>890;390;300</t>
-  </si>
-  <si>
-    <t>1994 -</t>
-  </si>
-  <si>
-    <t>2511686-1</t>
-  </si>
-  <si>
-    <t>Juminkeko-säätiön kansanmusiikin julkaisuja</t>
-  </si>
-  <si>
-    <t>Sibelius-Akatemia [u.a.]</t>
-  </si>
-  <si>
-    <t>Helsinki [u.a.]</t>
-  </si>
-  <si>
-    <t>1797-9838</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>1.2001 -</t>
-  </si>
-  <si>
-    <t>2512121-2</t>
-  </si>
-  <si>
-    <t>Čuovgga suotnjarat</t>
-  </si>
-  <si>
-    <t>Davvi Girji</t>
-  </si>
-  <si>
-    <t>[Kárájohka]</t>
-  </si>
-  <si>
-    <t>sme</t>
-  </si>
-  <si>
-    <t>1.2009 -</t>
-  </si>
-  <si>
-    <t>2513403-6</t>
-  </si>
-  <si>
-    <t>Finnougorija</t>
-  </si>
-  <si>
-    <t>OOO Kontekst</t>
-  </si>
-  <si>
-    <t>Nr. 1.2008 - 8.2009 ; nachgewiesen 13.2017-</t>
-  </si>
-  <si>
-    <t>1443872-0</t>
-  </si>
-  <si>
-    <t>Finno-Ugrica</t>
-  </si>
-  <si>
-    <t>Kazan'</t>
-  </si>
-  <si>
-    <t>Nr. 1.1997 - 12/13.2011; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>2529470-2</t>
-  </si>
-  <si>
-    <t>Ežegodnik finno-ugorskich issledovanij</t>
-  </si>
-  <si>
-    <t>ERGO</t>
-  </si>
-  <si>
-    <t>2224-9443</t>
-  </si>
-  <si>
-    <t>Nachgewiesn 2007(2008) -</t>
-  </si>
-  <si>
-    <t>2533724-5</t>
-  </si>
-  <si>
-    <t>Materialy i issledovanija</t>
-  </si>
-  <si>
-    <t>050;390</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2.2008 -</t>
-  </si>
-  <si>
-    <t>2536024-3</t>
-  </si>
-  <si>
-    <t>Bičet</t>
-  </si>
-  <si>
-    <t>Ižkar</t>
-  </si>
-  <si>
-    <t>rus;udm</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>2546877-7</t>
-  </si>
-  <si>
-    <t>Finno-ugorskij mir</t>
-  </si>
-  <si>
-    <t>Mežregionalʹnyj Naučnyj Centr Finno-Ugorvedenija</t>
-  </si>
-  <si>
-    <t>Saransk</t>
-  </si>
-  <si>
-    <t>2076-2577</t>
-  </si>
-  <si>
-    <t>Nr. 1.2008 -</t>
-  </si>
-  <si>
-    <t>2243912-2</t>
-  </si>
-  <si>
-    <t>Habilitationes Savarienses</t>
-  </si>
-  <si>
-    <t>Savaria University Press</t>
-  </si>
-  <si>
-    <t>Szombathely</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2.1997 -</t>
-  </si>
-  <si>
-    <t>2248568-5</t>
-  </si>
-  <si>
-    <t>Kodima</t>
-  </si>
-  <si>
-    <t>Izdat. Peridika</t>
-  </si>
-  <si>
-    <t>fiu</t>
-  </si>
-  <si>
-    <t>Nachgewiesen Nr. 142.2005 -</t>
-  </si>
-  <si>
-    <t>2557432-2</t>
-  </si>
-  <si>
-    <t>Udmurtskij mir</t>
-  </si>
-  <si>
-    <t>udm</t>
-  </si>
-  <si>
-    <t>Udmurt dunne</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2009,16.Jan=Nr. 24348/49 -</t>
-  </si>
-  <si>
-    <t>2567302-6</t>
-  </si>
-  <si>
-    <t>Uralo-altajskie issledovanija</t>
-  </si>
-  <si>
-    <t>Institut Jazykoznanija RAN</t>
-  </si>
-  <si>
-    <t>Moskva</t>
-  </si>
-  <si>
-    <t>2079-1003</t>
-  </si>
-  <si>
-    <t>7,11;7,50;FID-LING-DE-30</t>
-  </si>
-  <si>
-    <t>2259914-9</t>
-  </si>
-  <si>
-    <t>Marijskaja filologija</t>
-  </si>
-  <si>
-    <t>MarGU</t>
-  </si>
-  <si>
-    <t>Joškar-Ola</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 5.2005 - 7.2006; 8.2012 -</t>
-  </si>
-  <si>
-    <t>2262617-7</t>
-  </si>
-  <si>
-    <t>Trudy Instituta Jazyka, Istorii i Tradicionnoj Kultury Komi-Permjackogo Naroda</t>
-  </si>
-  <si>
-    <t>Univ.</t>
-  </si>
-  <si>
-    <t>Permʹ</t>
-  </si>
-  <si>
-    <t>1.2005 -</t>
-  </si>
-  <si>
-    <t>2579309-3</t>
-  </si>
-  <si>
-    <t>Karjalan Kuvalehti</t>
-  </si>
-  <si>
-    <t>Lappeenranta</t>
-  </si>
-  <si>
-    <t>1798-9779</t>
-  </si>
-  <si>
-    <t>050;910</t>
-  </si>
-  <si>
-    <t>2010 -</t>
-  </si>
-  <si>
-    <t>2272230-0</t>
-  </si>
-  <si>
-    <t>Minoritates mundi</t>
-  </si>
-  <si>
-    <t>Mentor Kiadó</t>
-  </si>
-  <si>
-    <t>Marosvásarhely</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 5.2001 -</t>
-  </si>
-  <si>
-    <t>2588949-7</t>
-  </si>
-  <si>
-    <t>Marij sandalyk</t>
-  </si>
-  <si>
-    <t>chm;rus</t>
-  </si>
-  <si>
-    <t>2008 -</t>
-  </si>
-  <si>
-    <t>2007348-3</t>
-  </si>
-  <si>
-    <t>Osa</t>
-  </si>
-  <si>
-    <t>Pacemyš-Osa</t>
-  </si>
-  <si>
-    <t>0131-2510</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1999,1=484 -</t>
-  </si>
-  <si>
-    <t>2590514-4</t>
-  </si>
-  <si>
-    <t>U kamelʹka</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>8.2009 nachgewiesen</t>
-  </si>
-  <si>
-    <t>2597377-0</t>
-  </si>
-  <si>
-    <t>Karjalan Kielen Seuran julkaisuja</t>
-  </si>
-  <si>
-    <t>2376443-0</t>
-  </si>
-  <si>
-    <t>Kulttuurituotannon ja maisemantutkimuksen laitoksen julkaisuja</t>
-  </si>
-  <si>
-    <t>Turun Yliopisto, Kulttuurituotannon ja Maisemantutkimuksen Laitos</t>
-  </si>
-  <si>
-    <t>Pori</t>
-  </si>
-  <si>
-    <t>1459-8469</t>
-  </si>
-  <si>
-    <t>1.2004 -</t>
-  </si>
-  <si>
-    <t>2377997-4</t>
-  </si>
-  <si>
-    <t>Lapin Yliopiston kasvatustieteellisiä julkaisuja</t>
-  </si>
-  <si>
-    <t>Lapplands Universitet, Biblioteket</t>
-  </si>
-  <si>
-    <t>Rovaniemi</t>
-  </si>
-  <si>
-    <t>1457-9553</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 15.2006 -</t>
-  </si>
-  <si>
-    <t>2381829-3</t>
-  </si>
-  <si>
-    <t>Nordlit</t>
-  </si>
-  <si>
-    <t>nor;eng</t>
-  </si>
-  <si>
-    <t>1503-2086</t>
-  </si>
-  <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>7,50;FID-GER-DE-30</t>
-  </si>
-  <si>
-    <t>1457916-9</t>
-  </si>
-  <si>
-    <t>Nr. 1.1997 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2381829;https://septentrio.uit.no/index.php/nordlit</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>12;19;20;26;29;1102;946;90;Mh 39;355;898;155;384;Aug 4;37;473;703;739;824;573;150;706</t>
-  </si>
-  <si>
-    <t>2019750-0</t>
-  </si>
-  <si>
-    <t>Mäetagused</t>
-  </si>
-  <si>
-    <t>Instituut</t>
-  </si>
-  <si>
-    <t>est</t>
-  </si>
-  <si>
-    <t>1406-992X</t>
-  </si>
-  <si>
-    <t>1/2.1996 -</t>
-  </si>
-  <si>
-    <t>2031832-7</t>
-  </si>
-  <si>
-    <t>Cafe boddu</t>
-  </si>
-  <si>
-    <t>Davvi Girjji</t>
-  </si>
-  <si>
-    <t>Kárasjohka</t>
-  </si>
-  <si>
-    <t>1.1991 -</t>
-  </si>
-  <si>
-    <t>6730-1</t>
-  </si>
-  <si>
-    <t>ra;mg;b</t>
-  </si>
-  <si>
-    <t>Finnisch-ugrische Mitteilungen</t>
-  </si>
-  <si>
-    <t>Buske</t>
-  </si>
-  <si>
-    <t>Hamburg</t>
-  </si>
-  <si>
-    <t>0341-7816</t>
-  </si>
-  <si>
-    <t>490;890</t>
-  </si>
-  <si>
-    <t>7,5;7,50</t>
-  </si>
-  <si>
-    <t>1.1977 -</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1a;16;18;19</t>
-  </si>
-  <si>
-    <t>779550-6</t>
-  </si>
-  <si>
-    <t>Fenno-Ugrica Suecana</t>
-  </si>
-  <si>
-    <t>Inst.</t>
-  </si>
-  <si>
-    <t>Uppsala</t>
-  </si>
-  <si>
-    <t>0348-3045</t>
-  </si>
-  <si>
-    <t>1.1978 - 12.1994[?]</t>
-  </si>
-  <si>
-    <t>791711-9</t>
-  </si>
-  <si>
-    <t>Finno-ugristika</t>
-  </si>
-  <si>
-    <t>Tip. Krasnyj Oktjabr'</t>
-  </si>
-  <si>
-    <t>1.1978 - 3.1980; 4.2000 - 9.2010; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>83985-1</t>
-  </si>
-  <si>
-    <t>Literatura o Permskoj Oblasti</t>
-  </si>
-  <si>
-    <t>Permskoe Kniž. Izdat.</t>
-  </si>
-  <si>
-    <t>Perm'</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1961(1962) -</t>
-  </si>
-  <si>
-    <t>1085720-5</t>
-  </si>
-  <si>
-    <t>Folia Uralica Debreceniensia</t>
-  </si>
-  <si>
-    <t>Debrecen</t>
-  </si>
-  <si>
-    <t>0239-1953</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>1.1989 -</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1a;12</t>
-  </si>
-  <si>
-    <t>1095206-8</t>
-  </si>
-  <si>
-    <t>Carelia</t>
-  </si>
-  <si>
-    <t>Periodika-Kustantamo</t>
-  </si>
-  <si>
-    <t>0868-6513</t>
-  </si>
-  <si>
-    <t>7,50;7,41</t>
-  </si>
-  <si>
-    <t>1095219-6</t>
-  </si>
-  <si>
-    <t>1990,7 -</t>
-  </si>
-  <si>
-    <t>2145850-9</t>
-  </si>
-  <si>
-    <t>Finnugor világ</t>
-  </si>
-  <si>
-    <t>Waldberg</t>
-  </si>
-  <si>
-    <t>Érd</t>
-  </si>
-  <si>
-    <t>hun</t>
-  </si>
-  <si>
-    <t>1416-776X</t>
-  </si>
-  <si>
-    <t>1.1996 -</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1121418-1</t>
-  </si>
-  <si>
-    <t>Pačemyš</t>
-  </si>
-  <si>
-    <t>Periodika Marij Ėl</t>
-  </si>
-  <si>
-    <t>0130-9269</t>
-  </si>
-  <si>
-    <t>Nachgewiesen Nr. 401.1990 -</t>
-  </si>
-  <si>
-    <t>1125013-6</t>
-  </si>
-  <si>
-    <t>Mokša</t>
-  </si>
-  <si>
-    <t>0134-434X</t>
-  </si>
-  <si>
-    <t>050;800;890</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1992 -</t>
-  </si>
-  <si>
-    <t>216537-5</t>
-  </si>
-  <si>
-    <t>Etudes finno-ougriennes</t>
-  </si>
-  <si>
-    <t>L'Harmattan [u.a.]</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>fre</t>
-  </si>
-  <si>
-    <t>0209-7699;0071-2051</t>
-  </si>
-  <si>
-    <t>1.1964 - 22.1989/90(1990); 23.1991 -</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1a;12;19</t>
-  </si>
-  <si>
-    <t>217995-7</t>
-  </si>
-  <si>
-    <t>mg;b</t>
-  </si>
-  <si>
-    <t>Ural-altaische Jahrbücher</t>
-  </si>
-  <si>
-    <t>Eurolingua</t>
-  </si>
-  <si>
-    <t>Berlin [u.a.]</t>
-  </si>
-  <si>
-    <t>0042-0786</t>
-  </si>
-  <si>
-    <t>890;390</t>
-  </si>
-  <si>
-    <t>7,50;6,21;6,23</t>
-  </si>
-  <si>
-    <t>1160713-0;307804-8</t>
-  </si>
-  <si>
-    <t>217996-9</t>
-  </si>
-  <si>
-    <t>24.1952 - 64.1992</t>
-  </si>
-  <si>
-    <t>1139569-2</t>
-  </si>
-  <si>
-    <t>Ončyko</t>
-  </si>
-  <si>
-    <t>chm</t>
-  </si>
-  <si>
-    <t>0134-4358</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1957 -  ; auch mit durchgehender Nr.-Zählung</t>
-  </si>
-  <si>
-    <t>1139588-6</t>
-  </si>
-  <si>
-    <t>Keneš</t>
-  </si>
-  <si>
-    <t>0206-4227;0869-883X</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1991 -</t>
-  </si>
-  <si>
-    <t>1006187-3</t>
-  </si>
-  <si>
-    <t>Vogul népköltési gyüjtemény</t>
-  </si>
-  <si>
-    <t>1410938-4</t>
-  </si>
-  <si>
-    <t>1.1892 - 3.1893,1; 4.1897,1</t>
-  </si>
-  <si>
-    <t>1152517-4</t>
-  </si>
-  <si>
-    <t>mg;d</t>
-  </si>
-  <si>
-    <t>Lexica Societatis Fenno-Ugricae</t>
-  </si>
-  <si>
-    <t>0780-8070;0356-5769</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>1.1913 -</t>
-  </si>
-  <si>
-    <t>1023548-6</t>
-  </si>
-  <si>
-    <t>Selkupskij (ostjako samoedskij) jazyk</t>
-  </si>
-  <si>
-    <t>Leningrad</t>
-  </si>
-  <si>
-    <t>rus;eng</t>
-  </si>
-  <si>
-    <t>1.1935[?]</t>
-  </si>
-  <si>
-    <t>1023854-2</t>
-  </si>
-  <si>
-    <t>Jazyki i pis'mennost narodov severa</t>
-  </si>
-  <si>
-    <t>Moskva [u.a.]</t>
-  </si>
-  <si>
-    <t>1.1937[?]</t>
-  </si>
-  <si>
-    <t>1024225-9</t>
-  </si>
-  <si>
-    <t>Linguistica Uralica</t>
-  </si>
-  <si>
-    <t>Tallin</t>
-  </si>
-  <si>
-    <t>ger;rus;eng</t>
-  </si>
-  <si>
-    <t>0868-4731;0132-0777</t>
-  </si>
-  <si>
-    <t>401622-1</t>
-  </si>
-  <si>
-    <t>26.1990 -</t>
-  </si>
-  <si>
-    <t>1170401-9</t>
-  </si>
-  <si>
-    <t>Trudy po lingvistike</t>
-  </si>
-  <si>
-    <t>1.1937 - 5.1937[?]</t>
-  </si>
-  <si>
-    <t>1170696-X</t>
-  </si>
-  <si>
-    <t>Bibliotheca Hungarico-Estica Instituti Litterarum Hungarici Universitatis Tartuensis</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>15.1934/35 nachgewiesen</t>
-  </si>
-  <si>
-    <t>1043467-7</t>
-  </si>
-  <si>
-    <t>Kraj mordovskij</t>
-  </si>
-  <si>
-    <t>1975 - 1977 nachgewiesen</t>
-  </si>
-  <si>
-    <t>300253-6</t>
-  </si>
-  <si>
-    <t>rb;mg;b</t>
-  </si>
-  <si>
-    <t>Finnisch-ugrische Forschungen</t>
-  </si>
-  <si>
-    <t>Finnisch-Ugrische Ges.</t>
-  </si>
-  <si>
-    <t>0355-1253</t>
-  </si>
-  <si>
-    <t>1.1901 -</t>
-  </si>
-  <si>
-    <t>1a;12;15;16;21;46</t>
-  </si>
-  <si>
-    <t>307804-8</t>
-  </si>
-  <si>
-    <t>ra;b</t>
-  </si>
-  <si>
-    <t>Harrassowitz</t>
-  </si>
-  <si>
-    <t>Wiesbaden</t>
-  </si>
-  <si>
-    <t>0174-0652</t>
-  </si>
-  <si>
-    <t>7,50;6,23;FID-FINNUG-DE-7</t>
-  </si>
-  <si>
-    <t>N.F. 1.1981 -</t>
-  </si>
-  <si>
-    <t>1a;12;26;43;46;77/080</t>
-  </si>
-  <si>
-    <t>1217646-1</t>
-  </si>
-  <si>
-    <t>Literatura o Respublike Komi</t>
-  </si>
-  <si>
-    <t>Komi Knižnoe Izd.</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>420404-9</t>
-  </si>
-  <si>
-    <t>1990(1993) -</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2642729-1</t>
-  </si>
-  <si>
-    <t>Schmidt Éva könyvtár</t>
-  </si>
-  <si>
-    <t>MTA Nyelvtudományi Int.</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2.2006 -</t>
-  </si>
-  <si>
-    <t>1238935-3</t>
-  </si>
-  <si>
-    <t>Philologia Fenno-Ugrica</t>
-  </si>
-  <si>
-    <t>Verl. Wiss. &amp; Öffentlichkeit;Hochschul-Verl.</t>
-  </si>
-  <si>
-    <t>Freiburg, Br.</t>
-  </si>
-  <si>
-    <t>0943-9471</t>
-  </si>
-  <si>
-    <t>400;890</t>
-  </si>
-  <si>
-    <t>2953879-8</t>
-  </si>
-  <si>
-    <t>1.1994/95(1994)-16/17 (2010/2011)</t>
-  </si>
-  <si>
-    <t>2670149-2</t>
-  </si>
-  <si>
-    <t>SÁMIacademica</t>
-  </si>
-  <si>
-    <t>ČálliidLágádus</t>
-  </si>
-  <si>
-    <t>Karasjok</t>
-  </si>
-  <si>
-    <t>1891-4519</t>
-  </si>
-  <si>
-    <t>[1].2008 -</t>
-  </si>
-  <si>
-    <t>2765367-5</t>
-  </si>
-  <si>
-    <t>Podvižniki kulʹtury Respubliki Marij Ėl</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 24.2013-</t>
-  </si>
-  <si>
-    <t>2769844-0</t>
-  </si>
-  <si>
-    <t>ld;dm;b</t>
-  </si>
-  <si>
-    <t>Harrassowitz [in Komm.]</t>
-  </si>
-  <si>
-    <t>2851867-6</t>
-  </si>
-  <si>
-    <t>N.F. 1.1981-25 (2012/2013)</t>
-  </si>
-  <si>
-    <t>http://resolver.sub.uni-goettingen.de/purl?PPN785327681;http://www.bibliothek.uni-regensburg.de/ezeit/?2769844</t>
-  </si>
-  <si>
-    <t>2826545-2</t>
-  </si>
-  <si>
-    <t>1 (1989)-</t>
-  </si>
-  <si>
-    <t>http://mnytud.arts.unideb.hu/finnugor/fud.php;http://www.bibliothek.uni-regensburg.de/ezeit/?2826545</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>12;19;20;26;29;1102;946;90;861;Mh 39;355;898;155;384;Aug 4;37;473;521;703;739;824;573;150;706;523</t>
+    <t>12;19;20;26;29;1102;946;90;861;Mh 39;355;898;155;384;Aug 4;37;473;521;703;739;824;573;150;706;523;Re 13</t>
   </si>
   <si>
     <t>2828145-7</t>
@@ -1819,1444 +1822,1444 @@
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="W6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="Y7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="Y8" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>90</v>
       </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="K9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" t="s">
-        <v>93</v>
-      </c>
       <c r="S9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Y9" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
         <v>95</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
         <v>96</v>
       </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" t="s">
-        <v>101</v>
-      </c>
       <c r="S10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="S11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="Y11" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
         <v>103</v>
       </c>
-      <c r="D12" t="s">
-        <v>109</v>
-      </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="S12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="Y12" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="S13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q14" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="S14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y14" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="S15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U15" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="V15" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="W15" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="S16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="Y16" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q17" t="s">
         <v>142</v>
       </c>
-      <c r="E17" t="s">
+      <c r="R17" t="s">
         <v>143</v>
       </c>
-      <c r="F17" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J17" t="s">
-        <v>146</v>
-      </c>
-      <c r="K17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" t="s">
-        <v>147</v>
-      </c>
       <c r="S17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="Q18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>154</v>
+      </c>
+      <c r="R19" t="s">
         <v>155</v>
       </c>
-      <c r="E19" t="s">
+      <c r="S19" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" t="s">
+        <v>32</v>
+      </c>
+      <c r="X19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y19" t="s">
         <v>156</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" t="s">
-        <v>157</v>
-      </c>
-      <c r="S19" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" t="s">
-        <v>29</v>
-      </c>
-      <c r="U19" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" t="s">
-        <v>29</v>
-      </c>
-      <c r="W19" t="s">
-        <v>29</v>
-      </c>
-      <c r="X19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
         <v>159</v>
       </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>160</v>
       </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R20" t="s">
         <v>161</v>
       </c>
       <c r="S20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -3267,4000 +3270,4000 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>163</v>
       </c>
       <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
         <v>164</v>
       </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" t="s">
-        <v>166</v>
-      </c>
       <c r="S21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U21" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="V21" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="W21" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
         <v>168</v>
       </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q22" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="R22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="S22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="Y22" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P23" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="Q23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="S23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y24" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="S25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y25" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q26" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="R26" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="S26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="Y26" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L27" t="s">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R27" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="S27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U27" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="V27" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="W27" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R28" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="S28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R29" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="S29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X29" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R30" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="S30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="Y30" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="J31" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="S31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E32" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R32" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="S32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U32" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="V32" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="W32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="Y32" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="G33" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="L33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q33" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="R33" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="S33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="Y33" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E34" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F34" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="J34" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R34" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="S34" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="T34" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="U34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="Y34" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J35" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R35" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="S35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X35" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="Y35" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J36" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R36" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="S36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="E37" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="F37" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R37" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="S37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X37" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="E38" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="F38" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R38" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="S38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X38" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>279</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="G39" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I39" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="J39" t="s">
-        <v>255</v>
+        <v>117</v>
       </c>
       <c r="K39" t="s">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="L39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q39" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="R39" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="S39" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="T39" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="U39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X39" t="s">
-        <v>260</v>
+        <v>56</v>
       </c>
       <c r="Y39" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E40" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>284</v>
+      </c>
+      <c r="J40" t="s">
+        <v>285</v>
+      </c>
+      <c r="K40" t="s">
+        <v>286</v>
+      </c>
+      <c r="L40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>287</v>
+      </c>
+      <c r="R40" t="s">
+        <v>288</v>
+      </c>
+      <c r="S40" t="s">
+        <v>32</v>
+      </c>
+      <c r="T40" t="s">
+        <v>32</v>
+      </c>
+      <c r="U40" t="s">
+        <v>32</v>
+      </c>
+      <c r="V40" t="s">
+        <v>32</v>
+      </c>
+      <c r="W40" t="s">
+        <v>32</v>
+      </c>
+      <c r="X40" t="s">
         <v>67</v>
       </c>
-      <c r="G40" t="s">
-        <v>265</v>
-      </c>
-      <c r="H40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" t="s">
-        <v>266</v>
-      </c>
-      <c r="J40" t="s">
-        <v>47</v>
-      </c>
-      <c r="K40" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" t="s">
-        <v>29</v>
-      </c>
-      <c r="M40" t="s">
-        <v>29</v>
-      </c>
-      <c r="N40" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40" t="s">
-        <v>29</v>
-      </c>
-      <c r="P40" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>29</v>
-      </c>
-      <c r="R40" t="s">
-        <v>267</v>
-      </c>
-      <c r="S40" t="s">
-        <v>29</v>
-      </c>
-      <c r="T40" t="s">
-        <v>29</v>
-      </c>
-      <c r="U40" t="s">
-        <v>29</v>
-      </c>
-      <c r="V40" t="s">
-        <v>29</v>
-      </c>
-      <c r="W40" t="s">
-        <v>29</v>
-      </c>
-      <c r="X40" t="s">
-        <v>35</v>
-      </c>
       <c r="Y40" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="E41" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F41" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="L41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R41" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="S41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U41" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="V41" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="W41" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="X41" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="E42" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="F42" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>299</v>
       </c>
       <c r="H42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="J42" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="K42" t="s">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="L42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R42" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="S42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X42" t="s">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="Y42" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E43" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R43" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="S43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="E44" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c r="H44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R44" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="S44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X44" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="E45" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="F45" t="s">
-        <v>297</v>
+        <v>152</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="K45" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="S45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X45" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="J46" t="s">
-        <v>303</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="S46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X46" t="s">
-        <v>305</v>
+        <v>56</v>
       </c>
       <c r="Y46" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="F47" t="s">
-        <v>98</v>
+        <v>327</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="H47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="J47" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s">
-        <v>311</v>
+        <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q47" t="s">
-        <v>312</v>
+        <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="S47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X47" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Y47" t="s">
-        <v>51</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="E48" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="F48" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="G48" t="s">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I48" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="L48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="S48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U48" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="V48" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="W48" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="X48" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y48" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="E49" t="s">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I49" t="s">
-        <v>325</v>
+        <v>32</v>
       </c>
       <c r="J49" t="s">
-        <v>175</v>
+        <v>339</v>
       </c>
       <c r="K49" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="S49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X49" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>343</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>329</v>
+        <v>32</v>
       </c>
       <c r="J50" t="s">
-        <v>330</v>
+        <v>63</v>
       </c>
       <c r="K50" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R50" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="S50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X50" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y50" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E51" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="F51" t="s">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="K51" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="S51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X51" t="s">
-        <v>339</v>
+        <v>67</v>
       </c>
       <c r="Y51" t="s">
-        <v>340</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>342</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E52" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F52" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I52" t="s">
-        <v>346</v>
+        <v>32</v>
       </c>
       <c r="J52" t="s">
-        <v>347</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s">
-        <v>348</v>
+        <v>46</v>
       </c>
       <c r="L52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P52" t="s">
-        <v>349</v>
+        <v>32</v>
       </c>
       <c r="Q52" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="R52" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="S52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X52" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="D53" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G53" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I53" t="s">
-        <v>355</v>
+        <v>32</v>
       </c>
       <c r="J53" t="s">
-        <v>330</v>
+        <v>63</v>
       </c>
       <c r="K53" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="L53" t="s">
-        <v>29</v>
+        <v>357</v>
       </c>
       <c r="M53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R53" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="S53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U53" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="V53" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="W53" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="X53" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y53" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>362</v>
       </c>
       <c r="H54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>359</v>
+        <v>32</v>
       </c>
       <c r="J54" t="s">
-        <v>330</v>
+        <v>63</v>
       </c>
       <c r="K54" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R54" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X54" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Y54" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>366</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>367</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>368</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="K55" t="s">
-        <v>33</v>
+        <v>369</v>
       </c>
       <c r="L55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P55" t="s">
-        <v>363</v>
+        <v>32</v>
       </c>
       <c r="Q55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R55" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="S55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X55" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>366</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>372</v>
       </c>
       <c r="F56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s">
         <v>79</v>
       </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
       <c r="H56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>368</v>
+        <v>32</v>
       </c>
       <c r="J56" t="s">
-        <v>369</v>
+        <v>53</v>
       </c>
       <c r="K56" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R56" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="S56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="F57" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G57" t="s">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J57" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="L57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R57" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="S57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X57" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>380</v>
       </c>
       <c r="F58" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G58" t="s">
-        <v>374</v>
+        <v>61</v>
       </c>
       <c r="H58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>29</v>
+        <v>382</v>
       </c>
       <c r="J58" t="s">
-        <v>118</v>
+        <v>383</v>
       </c>
       <c r="K58" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="L58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R58" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="S58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X58" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="F59" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G59" t="s">
-        <v>383</v>
+        <v>32</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I59" t="s">
-        <v>384</v>
+        <v>32</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q59" t="s">
-        <v>385</v>
+        <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="S59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X59" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y59" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>378</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>392</v>
       </c>
       <c r="H60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J60" t="s">
-        <v>118</v>
+        <v>339</v>
       </c>
       <c r="K60" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R60" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="S60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X60" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>395</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="G61" t="s">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="K61" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R61" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="S61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X61" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="K62" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R62" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="S62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X62" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>398</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E63" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I63" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="K63" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R63" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="S63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X63" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="Y63" t="s">
-        <v>403</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>405</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="E64" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F64" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="H64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I64" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J64" t="s">
-        <v>347</v>
+        <v>53</v>
       </c>
       <c r="K64" t="s">
-        <v>409</v>
+        <v>46</v>
       </c>
       <c r="L64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q64" t="s">
-        <v>341</v>
+        <v>32</v>
       </c>
       <c r="R64" t="s">
         <v>410</v>
       </c>
       <c r="S64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X64" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="Y64" t="s">
-        <v>411</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s">
+        <v>412</v>
+      </c>
+      <c r="E65" t="s">
         <v>413</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>414</v>
       </c>
-      <c r="F65" t="s">
-        <v>30</v>
-      </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>29</v>
+        <v>415</v>
       </c>
       <c r="J65" t="s">
-        <v>415</v>
+        <v>53</v>
       </c>
       <c r="K65" t="s">
-        <v>311</v>
+        <v>46</v>
       </c>
       <c r="L65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q65" t="s">
+        <v>32</v>
+      </c>
+      <c r="R65" t="s">
         <v>416</v>
       </c>
-      <c r="R65" t="s">
-        <v>417</v>
-      </c>
       <c r="S65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X65" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y65" t="s">
-        <v>418</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
+        <v>417</v>
+      </c>
+      <c r="B66" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>418</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s">
+        <v>298</v>
+      </c>
+      <c r="G66" t="s">
         <v>419</v>
       </c>
-      <c r="B66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" t="s">
-        <v>103</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s">
         <v>420</v>
       </c>
-      <c r="E66" t="s">
+      <c r="J66" t="s">
         <v>421</v>
       </c>
-      <c r="F66" t="s">
-        <v>38</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" t="s">
-        <v>29</v>
-      </c>
       <c r="K66" t="s">
-        <v>33</v>
+        <v>422</v>
       </c>
       <c r="L66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q66" t="s">
-        <v>29</v>
+        <v>423</v>
       </c>
       <c r="R66" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="S66" t="s">
-        <v>29</v>
+        <v>425</v>
       </c>
       <c r="T66" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="U66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X66" t="s">
-        <v>35</v>
+        <v>426</v>
       </c>
       <c r="Y66" t="s">
-        <v>29</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>405</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E67" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="F67" t="s">
-        <v>426</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I67" t="s">
-        <v>427</v>
+        <v>32</v>
       </c>
       <c r="J67" t="s">
-        <v>428</v>
+        <v>32</v>
       </c>
       <c r="K67" t="s">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="L67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P67" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="Q67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R67" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="S67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X67" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D68" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E68" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F68" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I68" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K68" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R68" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X68" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D69" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K69" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R69" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="S69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X69" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D70" t="s">
-        <v>343</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F70" t="s">
-        <v>407</v>
+        <v>193</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>408</v>
+        <v>194</v>
       </c>
       <c r="J70" t="s">
-        <v>347</v>
+        <v>139</v>
       </c>
       <c r="K70" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q70" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R70" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="S70" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X70" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>301</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="H71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J71" t="s">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R71" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S71" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="T71" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="U71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X71" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y71" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J72" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K72" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R72" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="S72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X72" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="Y72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/2023/ssg/7,50_DE-7.xlsx
+++ b/data/2023/ssg/7,50_DE-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="458">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -127,465 +127,474 @@
     <t>1.1977 -</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1a;9;16;18;19</t>
+  </si>
+  <si>
+    <t>1085720-5</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Folia Uralica Debreceniensia</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Debrecen</t>
+  </si>
+  <si>
+    <t>0239-1953</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>7,50</t>
+  </si>
+  <si>
+    <t>1.1989 -</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1a;12</t>
+  </si>
+  <si>
+    <t>402174-5</t>
+  </si>
+  <si>
+    <t>Keleti szemle</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>7,50;6,23</t>
+  </si>
+  <si>
+    <t>1.1900 - 21.1932; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1095206-8</t>
+  </si>
+  <si>
+    <t>Carelia</t>
+  </si>
+  <si>
+    <t>Periodika-Kustantamo</t>
+  </si>
+  <si>
+    <t>Petroskoi</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>0868-6513</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>7,50;7,41</t>
+  </si>
+  <si>
+    <t>1095219-6</t>
+  </si>
+  <si>
+    <t>1990,7 -</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>779550-6</t>
+  </si>
+  <si>
+    <t>Fenno-Ugrica Suecana</t>
+  </si>
+  <si>
+    <t>Inst.</t>
+  </si>
+  <si>
+    <t>Uppsala</t>
+  </si>
+  <si>
+    <t>0348-3045</t>
+  </si>
+  <si>
+    <t>1.1978 - 12.1994[?]</t>
+  </si>
+  <si>
+    <t>791711-9</t>
+  </si>
+  <si>
+    <t>Finno-ugristika</t>
+  </si>
+  <si>
+    <t>Tip. Krasnyj Oktjabr'</t>
+  </si>
+  <si>
+    <t>Saransk</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>1.1978 - 3.1980; 4.2000 - 9.2010; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1121418-1</t>
+  </si>
+  <si>
+    <t>Pačemyš</t>
+  </si>
+  <si>
+    <t>Periodika Marij Ėl</t>
+  </si>
+  <si>
+    <t>Joškar-Ola</t>
+  </si>
+  <si>
+    <t>0130-9269</t>
+  </si>
+  <si>
+    <t>Nachgewiesen Nr. 401.1990 -</t>
+  </si>
+  <si>
+    <t>1125013-6</t>
+  </si>
+  <si>
+    <t>Mokša</t>
+  </si>
+  <si>
+    <t>0134-434X</t>
+  </si>
+  <si>
+    <t>050;800;890</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1992 -</t>
+  </si>
+  <si>
+    <t>83985-1</t>
+  </si>
+  <si>
+    <t>Literatura o Permskoj Oblasti</t>
+  </si>
+  <si>
+    <t>Permskoe Kniž. Izdat.</t>
+  </si>
+  <si>
+    <t>Perm'</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1961(1962) -</t>
+  </si>
+  <si>
+    <t>1139569-2</t>
+  </si>
+  <si>
+    <t>Ončyko</t>
+  </si>
+  <si>
+    <t>chm</t>
+  </si>
+  <si>
+    <t>0134-4358</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1957 -  ; auch mit durchgehender Nr.-Zählung</t>
+  </si>
+  <si>
+    <t>1139588-6</t>
+  </si>
+  <si>
+    <t>Keneš</t>
+  </si>
+  <si>
+    <t>Ižkar</t>
+  </si>
+  <si>
+    <t>0206-4227;0869-883X</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1991 -</t>
+  </si>
+  <si>
+    <t>1152517-4</t>
+  </si>
+  <si>
+    <t>mg;d</t>
+  </si>
+  <si>
+    <t>Lexica Societatis Fenno-Ugricae</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>0780-8070;0356-5769</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>1.1913 -</t>
+  </si>
+  <si>
+    <t>1170401-9</t>
+  </si>
+  <si>
+    <t>Trudy po lingvistike</t>
+  </si>
+  <si>
+    <t>Moskva [u.a.]</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>1.1937 - 5.1937[?]</t>
+  </si>
+  <si>
+    <t>1170696-X</t>
+  </si>
+  <si>
+    <t>Bibliotheca Hungarico-Estica Instituti Litterarum Hungarici Universitatis Tartuensis</t>
+  </si>
+  <si>
+    <t>Tartu</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>15.1934/35 nachgewiesen</t>
+  </si>
+  <si>
+    <t>216537-5</t>
+  </si>
+  <si>
+    <t>Etudes finno-ougriennes</t>
+  </si>
+  <si>
+    <t>L'Harmattan [u.a.]</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>fre</t>
+  </si>
+  <si>
+    <t>0209-7699;0071-2051</t>
+  </si>
+  <si>
+    <t>1.1964 - 22.1989/90(1990); 23.1991 -</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1a;12;19</t>
+  </si>
+  <si>
+    <t>217995-7</t>
+  </si>
+  <si>
+    <t>mg;b</t>
+  </si>
+  <si>
+    <t>Ural-altaische Jahrbücher</t>
+  </si>
+  <si>
+    <t>Eurolingua</t>
+  </si>
+  <si>
+    <t>Berlin [u.a.]</t>
+  </si>
+  <si>
+    <t>0042-0786</t>
+  </si>
+  <si>
+    <t>890;390</t>
+  </si>
+  <si>
+    <t>7,50;6,21;6,23</t>
+  </si>
+  <si>
+    <t>1160713-0;307804-8</t>
+  </si>
+  <si>
+    <t>217996-9</t>
+  </si>
+  <si>
+    <t>24.1952 - 64.1992</t>
+  </si>
+  <si>
+    <t>1006187-3</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Vogul népköltési gyüjtemény</t>
+  </si>
+  <si>
+    <t>1410938-4</t>
+  </si>
+  <si>
+    <t>1.1892 - 3.1893,1; 4.1897,1</t>
+  </si>
+  <si>
+    <t>1217646-1</t>
+  </si>
+  <si>
+    <t>Literatura o Respublike Komi</t>
+  </si>
+  <si>
+    <t>Komi Knižnoe Izd.</t>
+  </si>
+  <si>
+    <t>Syktyvkar</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>420404-9</t>
+  </si>
+  <si>
+    <t>1990(1993) -</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1023548-6</t>
+  </si>
+  <si>
+    <t>Selkupskij (ostjako samoedskij) jazyk</t>
+  </si>
+  <si>
+    <t>Leningrad</t>
+  </si>
+  <si>
+    <t>rus;eng</t>
+  </si>
+  <si>
+    <t>1.1935[?]</t>
+  </si>
+  <si>
+    <t>1023854-2</t>
+  </si>
+  <si>
+    <t>Jazyki i pis'mennost narodov severa</t>
+  </si>
+  <si>
+    <t>1.1937[?]</t>
+  </si>
+  <si>
+    <t>1024225-9</t>
+  </si>
+  <si>
+    <t>Linguistica Uralica</t>
+  </si>
+  <si>
+    <t>Tallin</t>
+  </si>
+  <si>
+    <t>ger;rus;eng</t>
+  </si>
+  <si>
+    <t>0868-4731;0132-0777</t>
+  </si>
+  <si>
+    <t>401622-1</t>
+  </si>
+  <si>
+    <t>26.1990 -</t>
+  </si>
+  <si>
+    <t>1238935-3</t>
+  </si>
+  <si>
+    <t>ra;b</t>
+  </si>
+  <si>
+    <t>Philologia Fenno-Ugrica</t>
+  </si>
+  <si>
+    <t>Verl. Wiss. &amp; Öffentlichkeit;Hochschul-Verl.</t>
+  </si>
+  <si>
+    <t>Freiburg, Br.</t>
+  </si>
+  <si>
+    <t>0943-9471</t>
+  </si>
+  <si>
+    <t>400;890</t>
+  </si>
+  <si>
+    <t>2953879-8</t>
+  </si>
+  <si>
+    <t>1.1994/95(1994)-16/17 (2010/2011)</t>
+  </si>
+  <si>
+    <t>1043467-7</t>
+  </si>
+  <si>
+    <t>Kraj mordovskij</t>
+  </si>
+  <si>
+    <t>1975 - 1977 nachgewiesen</t>
+  </si>
+  <si>
+    <t>300253-6</t>
+  </si>
+  <si>
+    <t>rb;mg;b</t>
+  </si>
+  <si>
+    <t>Finnisch-ugrische Forschungen</t>
+  </si>
+  <si>
+    <t>Finnisch-Ugrische Ges.</t>
+  </si>
+  <si>
+    <t>0355-1253</t>
+  </si>
+  <si>
+    <t>1.1901 -</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>1a;16;18;19</t>
-  </si>
-  <si>
-    <t>1085720-5</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Folia Uralica Debreceniensia</t>
-  </si>
-  <si>
-    <t>[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>Debrecen</t>
-  </si>
-  <si>
-    <t>0239-1953</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>1.1989 -</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1a;12</t>
-  </si>
-  <si>
-    <t>402174-5</t>
-  </si>
-  <si>
-    <t>Keleti szemle</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>7,50;6,23</t>
-  </si>
-  <si>
-    <t>1.1900 - 21.1932; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1095206-8</t>
-  </si>
-  <si>
-    <t>Carelia</t>
-  </si>
-  <si>
-    <t>Periodika-Kustantamo</t>
-  </si>
-  <si>
-    <t>Petroskoi</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>0868-6513</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>7,50;7,41</t>
-  </si>
-  <si>
-    <t>1095219-6</t>
-  </si>
-  <si>
-    <t>1990,7 -</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>779550-6</t>
-  </si>
-  <si>
-    <t>Fenno-Ugrica Suecana</t>
-  </si>
-  <si>
-    <t>Inst.</t>
-  </si>
-  <si>
-    <t>Uppsala</t>
-  </si>
-  <si>
-    <t>0348-3045</t>
-  </si>
-  <si>
-    <t>1.1978 - 12.1994[?]</t>
-  </si>
-  <si>
-    <t>791711-9</t>
-  </si>
-  <si>
-    <t>Finno-ugristika</t>
-  </si>
-  <si>
-    <t>Tip. Krasnyj Oktjabr'</t>
-  </si>
-  <si>
-    <t>Saransk</t>
-  </si>
-  <si>
-    <t>rus</t>
-  </si>
-  <si>
-    <t>1.1978 - 3.1980; 4.2000 - 9.2010; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1121418-1</t>
-  </si>
-  <si>
-    <t>Pačemyš</t>
-  </si>
-  <si>
-    <t>Periodika Marij Ėl</t>
-  </si>
-  <si>
-    <t>Joškar-Ola</t>
-  </si>
-  <si>
-    <t>0130-9269</t>
-  </si>
-  <si>
-    <t>Nachgewiesen Nr. 401.1990 -</t>
-  </si>
-  <si>
-    <t>1125013-6</t>
-  </si>
-  <si>
-    <t>Mokša</t>
-  </si>
-  <si>
-    <t>0134-434X</t>
-  </si>
-  <si>
-    <t>050;800;890</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1992 -</t>
-  </si>
-  <si>
-    <t>83985-1</t>
-  </si>
-  <si>
-    <t>Literatura o Permskoj Oblasti</t>
-  </si>
-  <si>
-    <t>Permskoe Kniž. Izdat.</t>
-  </si>
-  <si>
-    <t>Perm'</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1961(1962) -</t>
-  </si>
-  <si>
-    <t>1139569-2</t>
-  </si>
-  <si>
-    <t>Ončyko</t>
-  </si>
-  <si>
-    <t>chm</t>
-  </si>
-  <si>
-    <t>0134-4358</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1957 -  ; auch mit durchgehender Nr.-Zählung</t>
-  </si>
-  <si>
-    <t>1139588-6</t>
-  </si>
-  <si>
-    <t>Keneš</t>
-  </si>
-  <si>
-    <t>Ižkar</t>
-  </si>
-  <si>
-    <t>0206-4227;0869-883X</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1991 -</t>
-  </si>
-  <si>
-    <t>1152517-4</t>
-  </si>
-  <si>
-    <t>mg;d</t>
-  </si>
-  <si>
-    <t>Lexica Societatis Fenno-Ugricae</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>0780-8070;0356-5769</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>1.1913 -</t>
-  </si>
-  <si>
-    <t>1170401-9</t>
-  </si>
-  <si>
-    <t>Trudy po lingvistike</t>
-  </si>
-  <si>
-    <t>Moskva [u.a.]</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>1.1937 - 5.1937[?]</t>
-  </si>
-  <si>
-    <t>1170696-X</t>
-  </si>
-  <si>
-    <t>Bibliotheca Hungarico-Estica Instituti Litterarum Hungarici Universitatis Tartuensis</t>
-  </si>
-  <si>
-    <t>Tartu</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>15.1934/35 nachgewiesen</t>
-  </si>
-  <si>
-    <t>216537-5</t>
-  </si>
-  <si>
-    <t>Etudes finno-ougriennes</t>
-  </si>
-  <si>
-    <t>L'Harmattan [u.a.]</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>fre</t>
-  </si>
-  <si>
-    <t>0209-7699;0071-2051</t>
-  </si>
-  <si>
-    <t>1.1964 - 22.1989/90(1990); 23.1991 -</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1a;12;19</t>
-  </si>
-  <si>
-    <t>217995-7</t>
-  </si>
-  <si>
-    <t>mg;b</t>
-  </si>
-  <si>
-    <t>Ural-altaische Jahrbücher</t>
-  </si>
-  <si>
-    <t>Eurolingua</t>
-  </si>
-  <si>
-    <t>Berlin [u.a.]</t>
-  </si>
-  <si>
-    <t>0042-0786</t>
-  </si>
-  <si>
-    <t>890;390</t>
-  </si>
-  <si>
-    <t>7,50;6,21;6,23</t>
-  </si>
-  <si>
-    <t>1160713-0;307804-8</t>
-  </si>
-  <si>
-    <t>217996-9</t>
-  </si>
-  <si>
-    <t>24.1952 - 64.1992</t>
-  </si>
-  <si>
-    <t>1006187-3</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Vogul népköltési gyüjtemény</t>
-  </si>
-  <si>
-    <t>1410938-4</t>
-  </si>
-  <si>
-    <t>1.1892 - 3.1893,1; 4.1897,1</t>
-  </si>
-  <si>
-    <t>1217646-1</t>
-  </si>
-  <si>
-    <t>Literatura o Respublike Komi</t>
-  </si>
-  <si>
-    <t>Komi Knižnoe Izd.</t>
-  </si>
-  <si>
-    <t>Syktyvkar</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>420404-9</t>
-  </si>
-  <si>
-    <t>1990(1993) -</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1023548-6</t>
-  </si>
-  <si>
-    <t>Selkupskij (ostjako samoedskij) jazyk</t>
-  </si>
-  <si>
-    <t>Leningrad</t>
-  </si>
-  <si>
-    <t>rus;eng</t>
-  </si>
-  <si>
-    <t>1.1935[?]</t>
-  </si>
-  <si>
-    <t>1023854-2</t>
-  </si>
-  <si>
-    <t>Jazyki i pis'mennost narodov severa</t>
-  </si>
-  <si>
-    <t>1.1937[?]</t>
-  </si>
-  <si>
-    <t>1024225-9</t>
-  </si>
-  <si>
-    <t>Linguistica Uralica</t>
-  </si>
-  <si>
-    <t>Tallin</t>
-  </si>
-  <si>
-    <t>ger;rus;eng</t>
-  </si>
-  <si>
-    <t>0868-4731;0132-0777</t>
-  </si>
-  <si>
-    <t>401622-1</t>
-  </si>
-  <si>
-    <t>26.1990 -</t>
-  </si>
-  <si>
-    <t>1238935-3</t>
-  </si>
-  <si>
-    <t>ra;b</t>
-  </si>
-  <si>
-    <t>Philologia Fenno-Ugrica</t>
-  </si>
-  <si>
-    <t>Verl. Wiss. &amp; Öffentlichkeit;Hochschul-Verl.</t>
-  </si>
-  <si>
-    <t>Freiburg, Br.</t>
-  </si>
-  <si>
-    <t>0943-9471</t>
-  </si>
-  <si>
-    <t>400;890</t>
-  </si>
-  <si>
-    <t>2953879-8</t>
-  </si>
-  <si>
-    <t>1.1994/95(1994)-16/17 (2010/2011)</t>
-  </si>
-  <si>
-    <t>1043467-7</t>
-  </si>
-  <si>
-    <t>Kraj mordovskij</t>
-  </si>
-  <si>
-    <t>1975 - 1977 nachgewiesen</t>
-  </si>
-  <si>
-    <t>300253-6</t>
-  </si>
-  <si>
-    <t>rb;mg;b</t>
-  </si>
-  <si>
-    <t>Finnisch-ugrische Forschungen</t>
-  </si>
-  <si>
-    <t>Finnisch-Ugrische Ges.</t>
-  </si>
-  <si>
-    <t>0355-1253</t>
-  </si>
-  <si>
-    <t>1.1901 -</t>
-  </si>
-  <si>
     <t>1a;12;16;46</t>
   </si>
   <si>
@@ -710,12 +719,6 @@
   </si>
   <si>
     <t>Nachgewiesen 1995 -</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>2429485-8</t>
@@ -1861,39 +1864,39 @@
         <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s">
         <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1902,13 +1905,13 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
@@ -1929,7 +1932,7 @@
         <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -1947,30 +1950,30 @@
         <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -1982,10 +1985,10 @@
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -2006,7 +2009,7 @@
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -2024,7 +2027,7 @@
         <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y4" t="s">
         <v>32</v>
@@ -2032,37 +2035,37 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -2080,10 +2083,10 @@
         <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S5" t="s">
         <v>32</v>
@@ -2101,30 +2104,30 @@
         <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -2133,13 +2136,13 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
@@ -2160,7 +2163,7 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s">
         <v>32</v>
@@ -2178,7 +2181,7 @@
         <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y6" t="s">
         <v>32</v>
@@ -2186,25 +2189,25 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -2213,10 +2216,10 @@
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -2237,7 +2240,7 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s">
         <v>32</v>
@@ -2255,7 +2258,7 @@
         <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y7" t="s">
         <v>32</v>
@@ -2263,22 +2266,22 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -2287,13 +2290,13 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -2314,7 +2317,7 @@
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
         <v>32</v>
@@ -2332,7 +2335,7 @@
         <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y8" t="s">
         <v>32</v>
@@ -2340,37 +2343,37 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
@@ -2391,7 +2394,7 @@
         <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S9" t="s">
         <v>32</v>
@@ -2409,33 +2412,33 @@
         <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
@@ -2444,10 +2447,10 @@
         <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -2468,7 +2471,7 @@
         <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S10" t="s">
         <v>32</v>
@@ -2486,7 +2489,7 @@
         <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y10" t="s">
         <v>32</v>
@@ -2494,37 +2497,37 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
@@ -2545,7 +2548,7 @@
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S11" t="s">
         <v>32</v>
@@ -2563,30 +2566,30 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -2595,13 +2598,13 @@
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -2622,7 +2625,7 @@
         <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S12" t="s">
         <v>32</v>
@@ -2640,30 +2643,30 @@
         <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>
@@ -2672,13 +2675,13 @@
         <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
@@ -2699,7 +2702,7 @@
         <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S13" t="s">
         <v>32</v>
@@ -2717,7 +2720,7 @@
         <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y13" t="s">
         <v>32</v>
@@ -2725,25 +2728,25 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -2752,10 +2755,10 @@
         <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -2776,7 +2779,7 @@
         <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S14" t="s">
         <v>32</v>
@@ -2794,7 +2797,7 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y14" t="s">
         <v>32</v>
@@ -2802,25 +2805,25 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
         <v>32</v>
@@ -2829,10 +2832,10 @@
         <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L15" t="s">
         <v>32</v>
@@ -2853,7 +2856,7 @@
         <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S15" t="s">
         <v>32</v>
@@ -2871,7 +2874,7 @@
         <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y15" t="s">
         <v>32</v>
@@ -2879,37 +2882,37 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
@@ -2930,7 +2933,7 @@
         <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S16" t="s">
         <v>32</v>
@@ -2939,39 +2942,39 @@
         <v>32</v>
       </c>
       <c r="U16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s">
         <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Y16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -2980,13 +2983,13 @@
         <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
         <v>32</v>
@@ -3001,13 +3004,13 @@
         <v>32</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="R17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="S17" t="s">
         <v>32</v>
@@ -3025,7 +3028,7 @@
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y17" t="s">
         <v>32</v>
@@ -3033,22 +3036,22 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -3060,10 +3063,10 @@
         <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
@@ -3078,13 +3081,13 @@
         <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q18" t="s">
         <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="S18" t="s">
         <v>32</v>
@@ -3102,7 +3105,7 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y18" t="s">
         <v>32</v>
@@ -3110,25 +3113,25 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -3137,10 +3140,10 @@
         <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
@@ -3158,10 +3161,10 @@
         <v>32</v>
       </c>
       <c r="Q19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S19" t="s">
         <v>32</v>
@@ -3179,33 +3182,33 @@
         <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H20" t="s">
         <v>32</v>
@@ -3214,10 +3217,10 @@
         <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
@@ -3238,7 +3241,7 @@
         <v>32</v>
       </c>
       <c r="R20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S20" t="s">
         <v>32</v>
@@ -3256,7 +3259,7 @@
         <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y20" t="s">
         <v>32</v>
@@ -3264,25 +3267,25 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
@@ -3291,10 +3294,10 @@
         <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
@@ -3315,7 +3318,7 @@
         <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S21" t="s">
         <v>32</v>
@@ -3333,7 +3336,7 @@
         <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y21" t="s">
         <v>32</v>
@@ -3341,37 +3344,37 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
@@ -3389,10 +3392,10 @@
         <v>32</v>
       </c>
       <c r="Q22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S22" t="s">
         <v>32</v>
@@ -3410,30 +3413,30 @@
         <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -3442,10 +3445,10 @@
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
         <v>35</v>
@@ -3463,13 +3466,13 @@
         <v>32</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q23" t="s">
         <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S23" t="s">
         <v>32</v>
@@ -3487,7 +3490,7 @@
         <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y23" t="s">
         <v>32</v>
@@ -3495,25 +3498,25 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
         <v>32</v>
@@ -3522,10 +3525,10 @@
         <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
@@ -3546,7 +3549,7 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S24" t="s">
         <v>32</v>
@@ -3564,7 +3567,7 @@
         <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y24" t="s">
         <v>32</v>
@@ -3572,22 +3575,22 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -3596,13 +3599,13 @@
         <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L25" t="s">
         <v>32</v>
@@ -3623,7 +3626,7 @@
         <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S25" t="s">
         <v>32</v>
@@ -3632,39 +3635,39 @@
         <v>32</v>
       </c>
       <c r="U25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s">
         <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="Y25" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -3673,13 +3676,13 @@
         <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K26" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -3697,10 +3700,10 @@
         <v>32</v>
       </c>
       <c r="Q26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R26" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="S26" t="s">
         <v>32</v>
@@ -3709,54 +3712,54 @@
         <v>32</v>
       </c>
       <c r="U26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s">
         <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Y26" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E27" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L27" t="s">
         <v>32</v>
@@ -3777,7 +3780,7 @@
         <v>32</v>
       </c>
       <c r="R27" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="S27" t="s">
         <v>32</v>
@@ -3795,7 +3798,7 @@
         <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y27" t="s">
         <v>32</v>
@@ -3803,22 +3806,22 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E28" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -3830,10 +3833,10 @@
         <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L28" t="s">
         <v>32</v>
@@ -3854,7 +3857,7 @@
         <v>32</v>
       </c>
       <c r="R28" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="S28" t="s">
         <v>32</v>
@@ -3872,7 +3875,7 @@
         <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y28" t="s">
         <v>32</v>
@@ -3880,25 +3883,25 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
         <v>32</v>
@@ -3907,10 +3910,10 @@
         <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L29" t="s">
         <v>32</v>
@@ -3931,7 +3934,7 @@
         <v>32</v>
       </c>
       <c r="R29" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="S29" t="s">
         <v>32</v>
@@ -3949,7 +3952,7 @@
         <v>32</v>
       </c>
       <c r="X29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y29" t="s">
         <v>32</v>
@@ -3957,37 +3960,37 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J30" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
@@ -4008,7 +4011,7 @@
         <v>32</v>
       </c>
       <c r="R30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="S30" t="s">
         <v>32</v>
@@ -4017,54 +4020,54 @@
         <v>32</v>
       </c>
       <c r="U30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s">
         <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
         <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
@@ -4085,7 +4088,7 @@
         <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S31" t="s">
         <v>32</v>
@@ -4103,7 +4106,7 @@
         <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y31" t="s">
         <v>32</v>
@@ -4111,22 +4114,22 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F32" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -4135,13 +4138,13 @@
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L32" t="s">
         <v>32</v>
@@ -4162,7 +4165,7 @@
         <v>32</v>
       </c>
       <c r="R32" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="S32" t="s">
         <v>32</v>
@@ -4171,54 +4174,54 @@
         <v>32</v>
       </c>
       <c r="U32" t="s">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="V32" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s">
         <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s">
         <v>32</v>
@@ -4236,10 +4239,10 @@
         <v>32</v>
       </c>
       <c r="Q33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S33" t="s">
         <v>32</v>
@@ -4257,45 +4260,45 @@
         <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Y33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L34" t="s">
         <v>32</v>
@@ -4316,13 +4319,13 @@
         <v>32</v>
       </c>
       <c r="R34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U34" t="s">
         <v>32</v>
@@ -4334,30 +4337,30 @@
         <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -4369,10 +4372,10 @@
         <v>32</v>
       </c>
       <c r="J35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s">
         <v>32</v>
@@ -4393,7 +4396,7 @@
         <v>32</v>
       </c>
       <c r="R35" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S35" t="s">
         <v>32</v>
@@ -4411,33 +4414,33 @@
         <v>32</v>
       </c>
       <c r="X35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H36" t="s">
         <v>32</v>
@@ -4446,10 +4449,10 @@
         <v>32</v>
       </c>
       <c r="J36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L36" t="s">
         <v>32</v>
@@ -4470,7 +4473,7 @@
         <v>32</v>
       </c>
       <c r="R36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="S36" t="s">
         <v>32</v>
@@ -4488,7 +4491,7 @@
         <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y36" t="s">
         <v>32</v>
@@ -4496,22 +4499,22 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -4520,13 +4523,13 @@
         <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
@@ -4547,7 +4550,7 @@
         <v>32</v>
       </c>
       <c r="R37" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S37" t="s">
         <v>32</v>
@@ -4565,7 +4568,7 @@
         <v>32</v>
       </c>
       <c r="X37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y37" t="s">
         <v>32</v>
@@ -4573,22 +4576,22 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -4597,13 +4600,13 @@
         <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J38" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L38" t="s">
         <v>32</v>
@@ -4624,7 +4627,7 @@
         <v>32</v>
       </c>
       <c r="R38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S38" t="s">
         <v>32</v>
@@ -4642,7 +4645,7 @@
         <v>32</v>
       </c>
       <c r="X38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y38" t="s">
         <v>32</v>
@@ -4650,25 +4653,25 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E39" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H39" t="s">
         <v>32</v>
@@ -4677,10 +4680,10 @@
         <v>32</v>
       </c>
       <c r="J39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L39" t="s">
         <v>32</v>
@@ -4701,7 +4704,7 @@
         <v>32</v>
       </c>
       <c r="R39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S39" t="s">
         <v>32</v>
@@ -4719,7 +4722,7 @@
         <v>32</v>
       </c>
       <c r="X39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y39" t="s">
         <v>32</v>
@@ -4727,37 +4730,37 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s">
         <v>32</v>
       </c>
       <c r="I40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s">
         <v>32</v>
@@ -4775,10 +4778,10 @@
         <v>32</v>
       </c>
       <c r="Q40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R40" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S40" t="s">
         <v>32</v>
@@ -4796,45 +4799,45 @@
         <v>32</v>
       </c>
       <c r="X40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F41" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s">
         <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K41" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L41" t="s">
         <v>32</v>
@@ -4855,7 +4858,7 @@
         <v>32</v>
       </c>
       <c r="R41" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S41" t="s">
         <v>32</v>
@@ -4864,16 +4867,16 @@
         <v>32</v>
       </c>
       <c r="U41" t="s">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="V41" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="W41" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="X41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y41" t="s">
         <v>32</v>
@@ -4881,37 +4884,37 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L42" t="s">
         <v>32</v>
@@ -4932,7 +4935,7 @@
         <v>32</v>
       </c>
       <c r="R42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S42" t="s">
         <v>32</v>
@@ -4950,7 +4953,7 @@
         <v>32</v>
       </c>
       <c r="X42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y42" t="s">
         <v>32</v>
@@ -4958,22 +4961,22 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -4982,13 +4985,13 @@
         <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L43" t="s">
         <v>32</v>
@@ -5009,7 +5012,7 @@
         <v>32</v>
       </c>
       <c r="R43" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S43" t="s">
         <v>32</v>
@@ -5027,7 +5030,7 @@
         <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y43" t="s">
         <v>32</v>
@@ -5035,25 +5038,25 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E44" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F44" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G44" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H44" t="s">
         <v>32</v>
@@ -5062,10 +5065,10 @@
         <v>32</v>
       </c>
       <c r="J44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L44" t="s">
         <v>32</v>
@@ -5086,7 +5089,7 @@
         <v>32</v>
       </c>
       <c r="R44" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S44" t="s">
         <v>32</v>
@@ -5104,7 +5107,7 @@
         <v>32</v>
       </c>
       <c r="X44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y44" t="s">
         <v>32</v>
@@ -5112,25 +5115,25 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E45" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s">
         <v>32</v>
@@ -5139,10 +5142,10 @@
         <v>32</v>
       </c>
       <c r="J45" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L45" t="s">
         <v>32</v>
@@ -5163,7 +5166,7 @@
         <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S45" t="s">
         <v>32</v>
@@ -5181,7 +5184,7 @@
         <v>32</v>
       </c>
       <c r="X45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y45" t="s">
         <v>32</v>
@@ -5189,25 +5192,25 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s">
         <v>32</v>
@@ -5216,10 +5219,10 @@
         <v>32</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L46" t="s">
         <v>32</v>
@@ -5240,7 +5243,7 @@
         <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S46" t="s">
         <v>32</v>
@@ -5258,7 +5261,7 @@
         <v>32</v>
       </c>
       <c r="X46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y46" t="s">
         <v>32</v>
@@ -5266,37 +5269,37 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L47" t="s">
         <v>32</v>
@@ -5317,7 +5320,7 @@
         <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S47" t="s">
         <v>32</v>
@@ -5335,45 +5338,45 @@
         <v>32</v>
       </c>
       <c r="X47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y47" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F48" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s">
         <v>32</v>
       </c>
       <c r="I48" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K48" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L48" t="s">
         <v>32</v>
@@ -5394,7 +5397,7 @@
         <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S48" t="s">
         <v>32</v>
@@ -5403,16 +5406,16 @@
         <v>32</v>
       </c>
       <c r="U48" t="s">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="V48" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="W48" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="X48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y48" t="s">
         <v>32</v>
@@ -5420,25 +5423,25 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s">
         <v>32</v>
@@ -5447,10 +5450,10 @@
         <v>32</v>
       </c>
       <c r="J49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L49" t="s">
         <v>32</v>
@@ -5471,7 +5474,7 @@
         <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S49" t="s">
         <v>32</v>
@@ -5489,7 +5492,7 @@
         <v>32</v>
       </c>
       <c r="X49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y49" t="s">
         <v>32</v>
@@ -5497,25 +5500,25 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G50" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H50" t="s">
         <v>32</v>
@@ -5524,10 +5527,10 @@
         <v>32</v>
       </c>
       <c r="J50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L50" t="s">
         <v>32</v>
@@ -5548,7 +5551,7 @@
         <v>32</v>
       </c>
       <c r="R50" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S50" t="s">
         <v>32</v>
@@ -5566,7 +5569,7 @@
         <v>32</v>
       </c>
       <c r="X50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y50" t="s">
         <v>32</v>
@@ -5574,37 +5577,37 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s">
         <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J51" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L51" t="s">
         <v>32</v>
@@ -5625,7 +5628,7 @@
         <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S51" t="s">
         <v>32</v>
@@ -5643,30 +5646,30 @@
         <v>32</v>
       </c>
       <c r="X51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E52" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -5678,10 +5681,10 @@
         <v>32</v>
       </c>
       <c r="J52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L52" t="s">
         <v>32</v>
@@ -5702,7 +5705,7 @@
         <v>32</v>
       </c>
       <c r="R52" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S52" t="s">
         <v>32</v>
@@ -5720,7 +5723,7 @@
         <v>32</v>
       </c>
       <c r="X52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y52" t="s">
         <v>32</v>
@@ -5728,25 +5731,25 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G53" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H53" t="s">
         <v>32</v>
@@ -5755,13 +5758,13 @@
         <v>32</v>
       </c>
       <c r="J53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K53" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M53" t="s">
         <v>32</v>
@@ -5779,7 +5782,7 @@
         <v>32</v>
       </c>
       <c r="R53" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S53" t="s">
         <v>32</v>
@@ -5788,16 +5791,16 @@
         <v>32</v>
       </c>
       <c r="U53" t="s">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="V53" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="W53" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="X53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y53" t="s">
         <v>32</v>
@@ -5805,25 +5808,25 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E54" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G54" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
@@ -5832,10 +5835,10 @@
         <v>32</v>
       </c>
       <c r="J54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L54" t="s">
         <v>32</v>
@@ -5856,7 +5859,7 @@
         <v>32</v>
       </c>
       <c r="R54" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S54" t="s">
         <v>32</v>
@@ -5874,45 +5877,45 @@
         <v>32</v>
       </c>
       <c r="X54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E55" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F55" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s">
         <v>32</v>
       </c>
       <c r="I55" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J55" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K55" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L55" t="s">
         <v>32</v>
@@ -5933,7 +5936,7 @@
         <v>32</v>
       </c>
       <c r="R55" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S55" t="s">
         <v>32</v>
@@ -5951,7 +5954,7 @@
         <v>32</v>
       </c>
       <c r="X55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y55" t="s">
         <v>32</v>
@@ -5959,25 +5962,25 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E56" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s">
         <v>32</v>
@@ -5986,10 +5989,10 @@
         <v>32</v>
       </c>
       <c r="J56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L56" t="s">
         <v>32</v>
@@ -6010,7 +6013,7 @@
         <v>32</v>
       </c>
       <c r="R56" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="S56" t="s">
         <v>32</v>
@@ -6028,7 +6031,7 @@
         <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y56" t="s">
         <v>32</v>
@@ -6036,25 +6039,25 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F57" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
@@ -6063,10 +6066,10 @@
         <v>32</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K57" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L57" t="s">
         <v>32</v>
@@ -6087,7 +6090,7 @@
         <v>32</v>
       </c>
       <c r="R57" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="S57" t="s">
         <v>32</v>
@@ -6096,16 +6099,16 @@
         <v>32</v>
       </c>
       <c r="U57" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V57" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W57" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y57" t="s">
         <v>32</v>
@@ -6113,37 +6116,37 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E58" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F58" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J58" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K58" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L58" t="s">
         <v>32</v>
@@ -6164,7 +6167,7 @@
         <v>32</v>
       </c>
       <c r="R58" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="S58" t="s">
         <v>32</v>
@@ -6173,16 +6176,16 @@
         <v>32</v>
       </c>
       <c r="U58" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y58" t="s">
         <v>32</v>
@@ -6190,22 +6193,22 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D59" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E59" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F59" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -6217,10 +6220,10 @@
         <v>32</v>
       </c>
       <c r="J59" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L59" t="s">
         <v>32</v>
@@ -6241,7 +6244,7 @@
         <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S59" t="s">
         <v>32</v>
@@ -6259,7 +6262,7 @@
         <v>32</v>
       </c>
       <c r="X59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y59" t="s">
         <v>32</v>
@@ -6267,25 +6270,25 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
@@ -6294,10 +6297,10 @@
         <v>32</v>
       </c>
       <c r="J60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L60" t="s">
         <v>32</v>
@@ -6318,7 +6321,7 @@
         <v>32</v>
       </c>
       <c r="R60" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="S60" t="s">
         <v>32</v>
@@ -6336,7 +6339,7 @@
         <v>32</v>
       </c>
       <c r="X60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y60" t="s">
         <v>32</v>
@@ -6344,25 +6347,25 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E61" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s">
         <v>32</v>
@@ -6371,10 +6374,10 @@
         <v>32</v>
       </c>
       <c r="J61" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L61" t="s">
         <v>32</v>
@@ -6395,7 +6398,7 @@
         <v>32</v>
       </c>
       <c r="R61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S61" t="s">
         <v>32</v>
@@ -6413,7 +6416,7 @@
         <v>32</v>
       </c>
       <c r="X61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y61" t="s">
         <v>32</v>
@@ -6421,22 +6424,22 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -6448,10 +6451,10 @@
         <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L62" t="s">
         <v>32</v>
@@ -6472,7 +6475,7 @@
         <v>32</v>
       </c>
       <c r="R62" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="S62" t="s">
         <v>32</v>
@@ -6490,7 +6493,7 @@
         <v>32</v>
       </c>
       <c r="X62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y62" t="s">
         <v>32</v>
@@ -6498,22 +6501,22 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E63" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
@@ -6522,13 +6525,13 @@
         <v>32</v>
       </c>
       <c r="I63" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L63" t="s">
         <v>32</v>
@@ -6549,7 +6552,7 @@
         <v>32</v>
       </c>
       <c r="R63" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S63" t="s">
         <v>32</v>
@@ -6567,7 +6570,7 @@
         <v>32</v>
       </c>
       <c r="X63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y63" t="s">
         <v>32</v>
@@ -6575,37 +6578,37 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E64" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F64" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H64" t="s">
         <v>32</v>
       </c>
       <c r="I64" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s">
         <v>32</v>
@@ -6626,7 +6629,7 @@
         <v>32</v>
       </c>
       <c r="R64" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S64" t="s">
         <v>32</v>
@@ -6644,7 +6647,7 @@
         <v>32</v>
       </c>
       <c r="X64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y64" t="s">
         <v>32</v>
@@ -6652,22 +6655,22 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E65" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F65" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6676,13 +6679,13 @@
         <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L65" t="s">
         <v>32</v>
@@ -6703,7 +6706,7 @@
         <v>32</v>
       </c>
       <c r="R65" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="S65" t="s">
         <v>32</v>
@@ -6721,7 +6724,7 @@
         <v>32</v>
       </c>
       <c r="X65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y65" t="s">
         <v>32</v>
@@ -6729,37 +6732,37 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G66" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H66" t="s">
         <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J66" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K66" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L66" t="s">
         <v>32</v>
@@ -6777,16 +6780,16 @@
         <v>32</v>
       </c>
       <c r="Q66" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R66" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="S66" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="T66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U66" t="s">
         <v>32</v>
@@ -6798,30 +6801,30 @@
         <v>32</v>
       </c>
       <c r="X66" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Y66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E67" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -6836,7 +6839,7 @@
         <v>32</v>
       </c>
       <c r="K67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L67" t="s">
         <v>32</v>
@@ -6857,7 +6860,7 @@
         <v>32</v>
       </c>
       <c r="R67" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="S67" t="s">
         <v>32</v>
@@ -6875,7 +6878,7 @@
         <v>32</v>
       </c>
       <c r="X67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y67" t="s">
         <v>32</v>
@@ -6883,22 +6886,22 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E68" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F68" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6907,13 +6910,13 @@
         <v>32</v>
       </c>
       <c r="I68" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J68" t="s">
         <v>32</v>
       </c>
       <c r="K68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L68" t="s">
         <v>32</v>
@@ -6934,7 +6937,7 @@
         <v>32</v>
       </c>
       <c r="R68" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="S68" t="s">
         <v>32</v>
@@ -6952,7 +6955,7 @@
         <v>32</v>
       </c>
       <c r="X68" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y68" t="s">
         <v>32</v>
@@ -6960,25 +6963,25 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D69" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s">
         <v>32</v>
@@ -6987,10 +6990,10 @@
         <v>32</v>
       </c>
       <c r="J69" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L69" t="s">
         <v>32</v>
@@ -7011,7 +7014,7 @@
         <v>32</v>
       </c>
       <c r="R69" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="S69" t="s">
         <v>32</v>
@@ -7029,7 +7032,7 @@
         <v>32</v>
       </c>
       <c r="X69" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y69" t="s">
         <v>32</v>
@@ -7037,22 +7040,22 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C70" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D70" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E70" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F70" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G70" t="s">
         <v>31</v>
@@ -7061,13 +7064,13 @@
         <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J70" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K70" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L70" t="s">
         <v>32</v>
@@ -7085,13 +7088,13 @@
         <v>32</v>
       </c>
       <c r="Q70" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R70" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="S70" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="T70" t="s">
         <v>32</v>
@@ -7106,7 +7109,7 @@
         <v>32</v>
       </c>
       <c r="X70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y70" t="s">
         <v>32</v>
@@ -7114,25 +7117,25 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H71" t="s">
         <v>32</v>
@@ -7141,10 +7144,10 @@
         <v>32</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L71" t="s">
         <v>32</v>
@@ -7165,13 +7168,13 @@
         <v>32</v>
       </c>
       <c r="R71" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="S71" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="T71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U71" t="s">
         <v>32</v>
@@ -7183,33 +7186,33 @@
         <v>32</v>
       </c>
       <c r="X71" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y71" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D72" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G72" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s">
         <v>32</v>
@@ -7218,10 +7221,10 @@
         <v>32</v>
       </c>
       <c r="J72" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L72" t="s">
         <v>32</v>
@@ -7242,7 +7245,7 @@
         <v>32</v>
       </c>
       <c r="R72" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="S72" t="s">
         <v>32</v>
@@ -7260,7 +7263,7 @@
         <v>32</v>
       </c>
       <c r="X72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y72" t="s">
         <v>32</v>
